--- a/biology/Médecine/Leo_Pharma/Leo_Pharma.xlsx
+++ b/biology/Médecine/Leo_Pharma/Leo_Pharma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 LEO Pharma A/S est une entreprise pharmaceutique danoise multinationale, fondée en 1908 et présente dans environ 100 pays. Son siège social se trouve à Ballerup, près de Copenhague. L'entreprise est intégrée à 100 % dans une fondation privée détenue par la Fondation LEO. LEO Pharma développe et commercialise des produits pour la dermatologie, le remodelage osseux, la thrombose et la coagulation. En 1945, elle a été le premier producteur de pénicilline hors des États-Unis et du Royaume-Uni.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Formation et 20e siècle
-En 1908, les pharmaciens August Kongsted et Anton Antons ont acheté la Pharmacie LEO à Copenhague, au Danemark. Avec cet achat, ils ont établi la "Københavns Løveapoteks kemiske Fabrik", aujourd'hui connue sous le nom de LEO Pharma. 
+          <t>Formation et 20e siècle</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1908, les pharmaciens August Kongsted et Anton Antons ont acheté la Pharmacie LEO à Copenhague, au Danemark. Avec cet achat, ils ont établi la "Københavns Løveapoteks kemiske Fabrik", aujourd'hui connue sous le nom de LEO Pharma. 
 1912 – La compagnie a lancé sa propre tablette contre les maux de tête à base d'aspirine.
 1917 – La compagnie a exporté le premier médicament du Danemark, le Digisolvin.
 1940 – La compagnie a lancé son propre produit à base d'héparine.
@@ -523,13 +540,48 @@
 1962 – La compagnie a lancé le Fucidin pour traiter les infections à staphylocoques.
 LEO Pharma a célébré son centenaire en 2008 en hissant des drapeaux de tous les pays où ses produits sont disponibles, soit plus d'une centaine de drapeaux au total. 
 Aujourd'hui, LEO Pharma dispose d'un pipeline de produits en constante expansion et quelques 4 800 spécialistes travaillant sur la dermatologie et la thrombose.
-21e siècle
-En 2015, la société a annoncé l'acquisition de l'activité dermatologique d'Astellas Pharma pour 725 millions de dollars.
-En 2018, la société a acquis l'unité de dermatologie de Bayer pour un montant non divulgué[3].
-En avril 2022, la société a nommé Christophe Bourdon comme nouveau PDG[4]. Avant cela, il était PDG d'Orphazyme A/S.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Leo_Pharma</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leo_Pharma</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>21e siècle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2015, la société a annoncé l'acquisition de l'activité dermatologique d'Astellas Pharma pour 725 millions de dollars.
+En 2018, la société a acquis l'unité de dermatologie de Bayer pour un montant non divulgué.
+En avril 2022, la société a nommé Christophe Bourdon comme nouveau PDG. Avant cela, il était PDG d'Orphazyme A/S.
 En janvier 2023, la société a commencé d'importantes réductions de personnel (environ 300 de ses employés actuels, soit environ 5 % de la main-d'œuvre) dans le cadre d'une restructuration majeure et d'une réorganisation en prévision d'une possible introduction en bourse planifiée. En raison de la réduction du programme de R&amp;D de la société, les nouveaux candidats médicaments en phase précoce devront être obtenus de l'extérieur.
-En août 2023, il a été annoncé que LEO Pharma avait conclu un accord définitif pour acquérir des actifs clés de la société biopharmaceutique basée à Basking Ridge, Timber Pharmaceuticals, pour 36 millions de dollars[5]. Cette transaction comprenait le TMB-001, une pommade topique d'isotrétinoïne actuellement en développement pour le traitement des sous-types modérés à sévères d'ichtyose congénitale.
-En mars 2023, LEO Pharma a annoncé dans son rapport annuel qu'elle avait réduit ses coûts opérationnels de 14% en 2023 tout en augmentant ses revenus de 7%[6].
+En août 2023, il a été annoncé que LEO Pharma avait conclu un accord définitif pour acquérir des actifs clés de la société biopharmaceutique basée à Basking Ridge, Timber Pharmaceuticals, pour 36 millions de dollars. Cette transaction comprenait le TMB-001, une pommade topique d'isotrétinoïne actuellement en développement pour le traitement des sous-types modérés à sévères d'ichtyose congénitale.
+En mars 2023, LEO Pharma a annoncé dans son rapport annuel qu'elle avait réduit ses coûts opérationnels de 14% en 2023 tout en augmentant ses revenus de 7%.
 </t>
         </is>
       </c>
